--- a/TDP-Jarvis-APIS/src/main/resources/services/excel/ServicioJ.xlsx
+++ b/TDP-Jarvis-APIS/src/main/resources/services/excel/ServicioJ.xlsx
@@ -19,78 +19,159 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="51">
+  <si>
+    <t>TC1</t>
+  </si>
   <si>
     <t>Endpoint</t>
   </si>
   <si>
+    <t>Response</t>
+  </si>
+  <si>
     <t>https://api.us-east.apiconnect.ibmcloud.com/telefonica-del-peru-development/ter/ws-offersEngine/v2/requestOffers</t>
   </si>
   <si>
-    <t>Response</t>
-  </si>
-  <si>
-    <t>Val_Valor1</t>
-  </si>
-  <si>
-    <t>Val_Valor2</t>
-  </si>
-  <si>
-    <t>Val_Valor3</t>
-  </si>
-  <si>
-    <t>Val_Valor4</t>
-  </si>
-  <si>
-    <t>Val_Valor5</t>
-  </si>
-  <si>
-    <t>Val_Valor6</t>
-  </si>
-  <si>
-    <t>Val_Valor7</t>
-  </si>
-  <si>
-    <t>Val_Valor8</t>
-  </si>
-  <si>
-    <t>Val_Valor9</t>
-  </si>
-  <si>
-    <t>Val_General</t>
-  </si>
-  <si>
-    <t>TC</t>
-  </si>
-  <si>
-    <t>{"HeaderOut":{"originator":"PE:TDP:WebConv:WebConv","destination":"PE:TDP:WebConv:WebConv","execId":"5cb89812-0eb3-0eb3-0eb3-0eb328561952","timestamp":"2020-06-18T02:55:43.955-05:00","msgType":"RESPONSE"},"BodyOut":{"additionalInfo":[],"currentProductInfo":[{"code":"Fijo_ciclo","value":"1"},{"code":"PF_Internet_Velocidad","value":"0"},{"code":"PF_Internet_Tecnologia","value":"0"},{"code":"PF_Cable_Tipo","value":"0"},{"code":"PF_Cable_CantidadDecosSmart","value":"0"},{"code":"PF_Cable_CantidadDecosHD","value":"0"},{"code":"PF_Internet_UltraWifiCantidad","value":"0"},{"code":"PF_Paquete_Renta","value":"0.0"},{"code":"PF_DescuentoPermanente","value":"0.0"},{"code":"PF_Arpa","value":"0.0"},{"code":"PF_InternetModem","value":"0"},{"code":"Flag_Desposicionado","value":"0"},{"code":"PM_Movil1_Renta","value":"0.0"},{"code":"PM_Movil1_DescPermanente","value":"0.0"},{"code":"PM_Movil1_CantDatos","value":"0"},{"code":"PM_Movil1_ConsumoMB","value":"0.0"},{"code":"PM_Movil1_BonoDuplicaFlag","value":"0"},{"code":"PM_Movil1_BonoDuplicaVenc","value":"0"},{"code":"PM_Movil1_DescuentoProm","value":"0"},{"code":"PM_Movil1_DescuentoPromVenc","value":"0"},{"code":"RentaActual","value":"0.0"}],"generalSaleCondition":[{"additionalInfo":[]}],"productOffers":[{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"200000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"200000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"232.0"},{"code":"RentaPaquete","value":"275.0"},{"code":"PrecioRegular","value":"385.0"},{"code":"Descuento","value":"110.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estándar Digital HD 200Mbps"},{"code":"PS","value":"23329"},{"code":"CostoHogarSolo","value":"232.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Smart Wifi"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"220.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"205.0"},{"code":"DescuentoEmpleado_Monto","value":"70.0"},{"code":"DescuentoEmpleado_RentaPaquete","value":"205.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"550.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"PF_CODIGO_AUTOMATIZADOR","value":"18737"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]},{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"100000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"100000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"192.0"},{"code":"RentaPaquete","value":"235.0"},{"code":"PrecioRegular","value":"329.0"},{"code":"Descuento","value":"94.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estandar Digital HD 100Mbps"},{"code":"PS","value":"23321"},{"code":"CostoHogarSolo","value":"192.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Docsis3"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"250.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"235.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"470.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]},{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"50000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"50000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"152.0"},{"code":"RentaPaquete","value":"195.0"},{"code":"PrecioRegular","value":"289.0"},{"code":"Descuento","value":"94.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estandar Digital HD 50Mbps"},{"code":"PS","value":"23323"},{"code":"CostoHogarSolo","value":"152.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Docsis3"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"210.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"195.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"390.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"PF_CODIGO_AUTOMATIZADOR","value":"18742"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]},{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"30000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"30000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"132.0"},{"code":"RentaPaquete","value":"175.0"},{"code":"PrecioRegular","value":"259.0"},{"code":"Descuento","value":"84.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estandar Digital HD 30Mbps"},{"code":"PS","value":"23322"},{"code":"CostoHogarSolo","value":"132.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Docsis3"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"190.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"175.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"350.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"PF_CODIGO_AUTOMATIZADOR","value":"18739"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]}]}}</t>
-  </si>
-  <si>
-    <t>23322: true</t>
-  </si>
-  <si>
-    <t>Movistar Total 13GB TV Estándar Digital HD 200Mbps: true</t>
-  </si>
-  <si>
-    <t>175.0: true</t>
-  </si>
-  <si>
-    <t>30000: true</t>
-  </si>
-  <si>
-    <t>43.0: true</t>
-  </si>
-  <si>
-    <t>13000: true</t>
-  </si>
-  <si>
-    <t>132.0: true</t>
-  </si>
-  <si>
-    <t>De alta velocidad para compartir PasaGigas y usar en America y Europa.: true</t>
-  </si>
-  <si>
-    <t>OK</t>
+    <t>Valor1</t>
+  </si>
+  <si>
+    <t>Valor2</t>
+  </si>
+  <si>
+    <t>Valor3</t>
+  </si>
+  <si>
+    <t>Valor4</t>
+  </si>
+  <si>
+    <t>Valor5</t>
+  </si>
+  <si>
+    <t>Valor6</t>
+  </si>
+  <si>
+    <t>Valor7</t>
+  </si>
+  <si>
+    <t>Valor8</t>
+  </si>
+  <si>
+    <t>Valor9</t>
+  </si>
+  <si>
+    <t>Resultado Ejecucion</t>
+  </si>
+  <si>
+    <t>{"HeaderOut":{"originator":"PE:TDP:WebConv:WebConv","destination":"PE:TDP:WebConv:WebConv","execId":"5cb89812-0eb3-0eb3-0eb3-0eb328561952","timestamp":"2020-06-18T22:28:57.373-05:00","msgType":"RESPONSE"},"BodyOut":{"additionalInfo":[],"currentProductInfo":[{"code":"Fijo_ciclo","value":"1"},{"code":"PF_Internet_Velocidad","value":"0"},{"code":"PF_Internet_Tecnologia","value":"0"},{"code":"PF_Cable_Tipo","value":"0"},{"code":"PF_Cable_CantidadDecosSmart","value":"0"},{"code":"PF_Cable_CantidadDecosHD","value":"0"},{"code":"PF_Internet_UltraWifiCantidad","value":"0"},{"code":"PF_Paquete_Renta","value":"0.0"},{"code":"PF_DescuentoPermanente","value":"0.0"},{"code":"PF_Arpa","value":"0.0"},{"code":"PF_InternetModem","value":"0"},{"code":"Flag_Desposicionado","value":"0"},{"code":"PM_Movil1_Renta","value":"0.0"},{"code":"PM_Movil1_DescPermanente","value":"0.0"},{"code":"PM_Movil1_CantDatos","value":"0"},{"code":"PM_Movil1_ConsumoMB","value":"0.0"},{"code":"PM_Movil1_BonoDuplicaFlag","value":"0"},{"code":"PM_Movil1_BonoDuplicaVenc","value":"0"},{"code":"PM_Movil1_DescuentoProm","value":"0"},{"code":"PM_Movil1_DescuentoPromVenc","value":"0"},{"code":"RentaActual","value":"0.0"}],"generalSaleCondition":[{"additionalInfo":[]}],"productOffers":[{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"200000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"200000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"232.0"},{"code":"RentaPaquete","value":"275.0"},{"code":"PrecioRegular","value":"385.0"},{"code":"Descuento","value":"110.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estándar Digital HD 200Mbps"},{"code":"PS","value":"23329"},{"code":"CostoHogarSolo","value":"232.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Smart Wifi"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"220.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"205.0"},{"code":"DescuentoEmpleado_Monto","value":"70.0"},{"code":"DescuentoEmpleado_RentaPaquete","value":"205.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"550.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"PF_CODIGO_AUTOMATIZADOR","value":"18737"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]},{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"100000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"100000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"192.0"},{"code":"RentaPaquete","value":"235.0"},{"code":"PrecioRegular","value":"329.0"},{"code":"Descuento","value":"94.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estandar Digital HD 100Mbps"},{"code":"PS","value":"23321"},{"code":"CostoHogarSolo","value":"192.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Docsis3"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"250.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"235.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"470.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]},{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"50000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"50000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"152.0"},{"code":"RentaPaquete","value":"195.0"},{"code":"PrecioRegular","value":"289.0"},{"code":"Descuento","value":"94.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estandar Digital HD 50Mbps"},{"code":"PS","value":"23323"},{"code":"CostoHogarSolo","value":"152.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Docsis3"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"210.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"195.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"390.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"PF_CODIGO_AUTOMATIZADOR","value":"18742"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]},{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"30000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"30000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"132.0"},{"code":"RentaPaquete","value":"175.0"},{"code":"PrecioRegular","value":"259.0"},{"code":"Descuento","value":"84.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estandar Digital HD 30Mbps"},{"code":"PS","value":"23322"},{"code":"CostoHogarSolo","value":"132.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Docsis3"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"190.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"175.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"350.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"PF_CODIGO_AUTOMATIZADOR","value":"18739"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]}]}}</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>23322: true0</t>
+  </si>
+  <si>
+    <t>Movistar Total 13GB TV Estándar Digital HD 200Mbps: true1</t>
+  </si>
+  <si>
+    <t>175.0: true2</t>
+  </si>
+  <si>
+    <t>30000: true3</t>
+  </si>
+  <si>
+    <t>43.0: true4</t>
+  </si>
+  <si>
+    <t>13000: true5</t>
+  </si>
+  <si>
+    <t>132.0: true6</t>
+  </si>
+  <si>
+    <t>43.0: true7</t>
+  </si>
+  <si>
+    <t>De alta velocidad para compartir PasaGigas y usar en America y Europa.: true8</t>
+  </si>
+  <si>
+    <t>{"HeaderOut":{"originator":"PE:TDP:WebConv:WebConv","destination":"PE:TDP:WebConv:WebConv","execId":"5cb89812-0eb3-0eb3-0eb3-0eb328561952","timestamp":"2020-06-18T22:28:59.484-05:00","msgType":"RESPONSE"},"BodyOut":{"additionalInfo":[],"currentProductInfo":[{"code":"Fijo_ciclo","value":"1"},{"code":"PF_Internet_Velocidad","value":"0"},{"code":"PF_Internet_Tecnologia","value":"0"},{"code":"PF_Cable_Tipo","value":"0"},{"code":"PF_Cable_CantidadDecosSmart","value":"0"},{"code":"PF_Cable_CantidadDecosHD","value":"0"},{"code":"PF_Internet_UltraWifiCantidad","value":"0"},{"code":"PF_Paquete_Renta","value":"0.0"},{"code":"PF_DescuentoPermanente","value":"0.0"},{"code":"PF_Arpa","value":"0.0"},{"code":"PF_InternetModem","value":"0"},{"code":"Flag_Desposicionado","value":"0"},{"code":"PM_Movil1_Renta","value":"0.0"},{"code":"PM_Movil1_DescPermanente","value":"0.0"},{"code":"PM_Movil1_CantDatos","value":"0"},{"code":"PM_Movil1_ConsumoMB","value":"0.0"},{"code":"PM_Movil1_BonoDuplicaFlag","value":"0"},{"code":"PM_Movil1_BonoDuplicaVenc","value":"0"},{"code":"PM_Movil1_DescuentoProm","value":"0"},{"code":"PM_Movil1_DescuentoPromVenc","value":"0"},{"code":"RentaActual","value":"0.0"}],"generalSaleCondition":[{"additionalInfo":[]}],"productOffers":[{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"200000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"200000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"232.0"},{"code":"RentaPaquete","value":"275.0"},{"code":"PrecioRegular","value":"385.0"},{"code":"Descuento","value":"110.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estándar Digital HD 200Mbps"},{"code":"PS","value":"23329"},{"code":"CostoHogarSolo","value":"232.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Smart Wifi"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"220.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"205.0"},{"code":"DescuentoEmpleado_Monto","value":"70.0"},{"code":"DescuentoEmpleado_RentaPaquete","value":"205.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"550.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"PF_CODIGO_AUTOMATIZADOR","value":"18737"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]},{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"100000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"100000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"192.0"},{"code":"RentaPaquete","value":"235.0"},{"code":"PrecioRegular","value":"329.0"},{"code":"Descuento","value":"94.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estandar Digital HD 100Mbps"},{"code":"PS","value":"23321"},{"code":"CostoHogarSolo","value":"192.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Docsis3"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"250.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"235.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"470.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]},{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"50000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"50000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"152.0"},{"code":"RentaPaquete","value":"195.0"},{"code":"PrecioRegular","value":"289.0"},{"code":"Descuento","value":"94.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estandar Digital HD 50Mbps"},{"code":"PS","value":"23323"},{"code":"CostoHogarSolo","value":"152.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Docsis3"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"210.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"195.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"390.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"PF_CODIGO_AUTOMATIZADOR","value":"18742"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]},{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"30000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"30000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"132.0"},{"code":"RentaPaquete","value":"175.0"},{"code":"PrecioRegular","value":"259.0"},{"code":"Descuento","value":"84.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estandar Digital HD 30Mbps"},{"code":"PS","value":"23322"},{"code":"CostoHogarSolo","value":"132.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Docsis3"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"190.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"175.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"350.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"PF_CODIGO_AUTOMATIZADOR","value":"18739"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]}]}}</t>
+  </si>
+  <si>
+    <t>{"HeaderOut":{"originator":"PE:TDP:WebConv:WebConv","destination":"PE:TDP:WebConv:WebConv","execId":"5cb89812-0eb3-0eb3-0eb3-0eb328561952","timestamp":"2020-06-18T22:29:59.18-05:00","msgType":"RESPONSE"},"BodyOut":{"additionalInfo":[],"currentProductInfo":[{"code":"Fijo_ciclo","value":"1"},{"code":"PF_Internet_Velocidad","value":"0"},{"code":"PF_Internet_Tecnologia","value":"0"},{"code":"PF_Cable_Tipo","value":"0"},{"code":"PF_Cable_CantidadDecosSmart","value":"0"},{"code":"PF_Cable_CantidadDecosHD","value":"0"},{"code":"PF_Internet_UltraWifiCantidad","value":"0"},{"code":"PF_Paquete_Renta","value":"0.0"},{"code":"PF_DescuentoPermanente","value":"0.0"},{"code":"PF_Arpa","value":"0.0"},{"code":"PF_InternetModem","value":"0"},{"code":"Flag_Desposicionado","value":"0"},{"code":"PM_Movil1_Renta","value":"0.0"},{"code":"PM_Movil1_DescPermanente","value":"0.0"},{"code":"PM_Movil1_CantDatos","value":"0"},{"code":"PM_Movil1_ConsumoMB","value":"0.0"},{"code":"PM_Movil1_BonoDuplicaFlag","value":"0"},{"code":"PM_Movil1_BonoDuplicaVenc","value":"0"},{"code":"PM_Movil1_DescuentoProm","value":"0"},{"code":"PM_Movil1_DescuentoPromVenc","value":"0"},{"code":"RentaActual","value":"0.0"}],"generalSaleCondition":[{"additionalInfo":[]}],"productOffers":[{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"200000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"200000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"232.0"},{"code":"RentaPaquete","value":"275.0"},{"code":"PrecioRegular","value":"385.0"},{"code":"Descuento","value":"110.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estándar Digital HD 200Mbps"},{"code":"PS","value":"23329"},{"code":"CostoHogarSolo","value":"232.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Smart Wifi"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"220.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"205.0"},{"code":"DescuentoEmpleado_Monto","value":"70.0"},{"code":"DescuentoEmpleado_RentaPaquete","value":"205.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"550.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"PF_CODIGO_AUTOMATIZADOR","value":"18737"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]},{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"100000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"100000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"192.0"},{"code":"RentaPaquete","value":"235.0"},{"code":"PrecioRegular","value":"329.0"},{"code":"Descuento","value":"94.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estandar Digital HD 100Mbps"},{"code":"PS","value":"23321"},{"code":"CostoHogarSolo","value":"192.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Docsis3"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"250.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"235.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"470.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]},{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"50000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"50000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"152.0"},{"code":"RentaPaquete","value":"195.0"},{"code":"PrecioRegular","value":"289.0"},{"code":"Descuento","value":"94.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estandar Digital HD 50Mbps"},{"code":"PS","value":"23323"},{"code":"CostoHogarSolo","value":"152.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Docsis3"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"210.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"195.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"390.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"PF_CODIGO_AUTOMATIZADOR","value":"18742"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]},{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"30000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"30000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"132.0"},{"code":"RentaPaquete","value":"175.0"},{"code":"PrecioRegular","value":"259.0"},{"code":"Descuento","value":"84.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estandar Digital HD 30Mbps"},{"code":"PS","value":"23322"},{"code":"CostoHogarSolo","value":"132.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Docsis3"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"190.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"175.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"350.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"PF_CODIGO_AUTOMATIZADOR","value":"18739"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]}]}}</t>
+  </si>
+  <si>
+    <t>FAILED</t>
+  </si>
+  <si>
+    <t>Movistar Total 13GB mari TV Estándar Digital HD 200Mbps: false1</t>
+  </si>
+  <si>
+    <t>{"HeaderOut":{"originator":"PE:TDP:WebConv:WebConv","destination":"PE:TDP:WebConv:WebConv","execId":"5cb89812-0eb3-0eb3-0eb3-0eb328561952","timestamp":"2020-06-18T22:30:01.484-05:00","msgType":"RESPONSE"},"BodyOut":{"additionalInfo":[],"currentProductInfo":[{"code":"Fijo_ciclo","value":"1"},{"code":"PF_Internet_Velocidad","value":"0"},{"code":"PF_Internet_Tecnologia","value":"0"},{"code":"PF_Cable_Tipo","value":"0"},{"code":"PF_Cable_CantidadDecosSmart","value":"0"},{"code":"PF_Cable_CantidadDecosHD","value":"0"},{"code":"PF_Internet_UltraWifiCantidad","value":"0"},{"code":"PF_Paquete_Renta","value":"0.0"},{"code":"PF_DescuentoPermanente","value":"0.0"},{"code":"PF_Arpa","value":"0.0"},{"code":"PF_InternetModem","value":"0"},{"code":"Flag_Desposicionado","value":"0"},{"code":"PM_Movil1_Renta","value":"0.0"},{"code":"PM_Movil1_DescPermanente","value":"0.0"},{"code":"PM_Movil1_CantDatos","value":"0"},{"code":"PM_Movil1_ConsumoMB","value":"0.0"},{"code":"PM_Movil1_BonoDuplicaFlag","value":"0"},{"code":"PM_Movil1_BonoDuplicaVenc","value":"0"},{"code":"PM_Movil1_DescuentoProm","value":"0"},{"code":"PM_Movil1_DescuentoPromVenc","value":"0"},{"code":"RentaActual","value":"0.0"}],"generalSaleCondition":[{"additionalInfo":[]}],"productOffers":[{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"200000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"200000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"232.0"},{"code":"RentaPaquete","value":"275.0"},{"code":"PrecioRegular","value":"385.0"},{"code":"Descuento","value":"110.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estándar Digital HD 200Mbps"},{"code":"PS","value":"23329"},{"code":"CostoHogarSolo","value":"232.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Smart Wifi"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"220.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"205.0"},{"code":"DescuentoEmpleado_Monto","value":"70.0"},{"code":"DescuentoEmpleado_RentaPaquete","value":"205.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"550.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"PF_CODIGO_AUTOMATIZADOR","value":"18737"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]},{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"100000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"100000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"192.0"},{"code":"RentaPaquete","value":"235.0"},{"code":"PrecioRegular","value":"329.0"},{"code":"Descuento","value":"94.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estandar Digital HD 100Mbps"},{"code":"PS","value":"23321"},{"code":"CostoHogarSolo","value":"192.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Docsis3"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"250.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"235.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"470.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]},{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"50000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"50000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"152.0"},{"code":"RentaPaquete","value":"195.0"},{"code":"PrecioRegular","value":"289.0"},{"code":"Descuento","value":"94.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estandar Digital HD 50Mbps"},{"code":"PS","value":"23323"},{"code":"CostoHogarSolo","value":"152.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Docsis3"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"210.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"195.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"390.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"PF_CODIGO_AUTOMATIZADOR","value":"18742"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]},{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"30000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"30000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"132.0"},{"code":"RentaPaquete","value":"175.0"},{"code":"PrecioRegular","value":"259.0"},{"code":"Descuento","value":"84.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estandar Digital HD 30Mbps"},{"code":"PS","value":"23322"},{"code":"CostoHogarSolo","value":"132.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Docsis3"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"190.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"175.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"350.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"PF_CODIGO_AUTOMATIZADOR","value":"18739"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]}]}}</t>
+  </si>
+  <si>
+    <t>{"HeaderOut":{"originator":"PE:TDP:WebConv:WebConv","destination":"PE:TDP:WebConv:WebConv","execId":"5cb89812-0eb3-0eb3-0eb3-0eb328561952","timestamp":"2020-06-18T22:32:50.25-05:00","msgType":"RESPONSE"},"BodyOut":{"additionalInfo":[],"currentProductInfo":[{"code":"Fijo_ciclo","value":"1"},{"code":"PF_Internet_Velocidad","value":"0"},{"code":"PF_Internet_Tecnologia","value":"0"},{"code":"PF_Cable_Tipo","value":"0"},{"code":"PF_Cable_CantidadDecosSmart","value":"0"},{"code":"PF_Cable_CantidadDecosHD","value":"0"},{"code":"PF_Internet_UltraWifiCantidad","value":"0"},{"code":"PF_Paquete_Renta","value":"0.0"},{"code":"PF_DescuentoPermanente","value":"0.0"},{"code":"PF_Arpa","value":"0.0"},{"code":"PF_InternetModem","value":"0"},{"code":"Flag_Desposicionado","value":"0"},{"code":"PM_Movil1_Renta","value":"0.0"},{"code":"PM_Movil1_DescPermanente","value":"0.0"},{"code":"PM_Movil1_CantDatos","value":"0"},{"code":"PM_Movil1_ConsumoMB","value":"0.0"},{"code":"PM_Movil1_BonoDuplicaFlag","value":"0"},{"code":"PM_Movil1_BonoDuplicaVenc","value":"0"},{"code":"PM_Movil1_DescuentoProm","value":"0"},{"code":"PM_Movil1_DescuentoPromVenc","value":"0"},{"code":"RentaActual","value":"0.0"}],"generalSaleCondition":[{"additionalInfo":[]}],"productOffers":[{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"200000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"200000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"232.0"},{"code":"RentaPaquete","value":"275.0"},{"code":"PrecioRegular","value":"385.0"},{"code":"Descuento","value":"110.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estándar Digital HD 200Mbps"},{"code":"PS","value":"23329"},{"code":"CostoHogarSolo","value":"232.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Smart Wifi"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"220.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"205.0"},{"code":"DescuentoEmpleado_Monto","value":"70.0"},{"code":"DescuentoEmpleado_RentaPaquete","value":"205.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"550.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"PF_CODIGO_AUTOMATIZADOR","value":"18737"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]},{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"100000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"100000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"192.0"},{"code":"RentaPaquete","value":"235.0"},{"code":"PrecioRegular","value":"329.0"},{"code":"Descuento","value":"94.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estandar Digital HD 100Mbps"},{"code":"PS","value":"23321"},{"code":"CostoHogarSolo","value":"192.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Docsis3"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"250.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"235.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"470.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]},{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"50000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"50000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"152.0"},{"code":"RentaPaquete","value":"195.0"},{"code":"PrecioRegular","value":"289.0"},{"code":"Descuento","value":"94.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estandar Digital HD 50Mbps"},{"code":"PS","value":"23323"},{"code":"CostoHogarSolo","value":"152.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Docsis3"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"210.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"195.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"390.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"PF_CODIGO_AUTOMATIZADOR","value":"18742"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]},{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"30000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"30000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"132.0"},{"code":"RentaPaquete","value":"175.0"},{"code":"PrecioRegular","value":"259.0"},{"code":"Descuento","value":"84.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estandar Digital HD 30Mbps"},{"code":"PS","value":"23322"},{"code":"CostoHogarSolo","value":"132.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Docsis3"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"190.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"175.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"350.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"PF_CODIGO_AUTOMATIZADOR","value":"18739"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]}]}}</t>
+  </si>
+  <si>
+    <t>{"HeaderOut":{"originator":"PE:TDP:WebConv:WebConv","destination":"PE:TDP:WebConv:WebConv","execId":"5cb89812-0eb3-0eb3-0eb3-0eb328561952","timestamp":"2020-06-18T22:32:52.756-05:00","msgType":"RESPONSE"},"BodyOut":{"additionalInfo":[],"currentProductInfo":[{"code":"Fijo_ciclo","value":"1"},{"code":"PF_Internet_Velocidad","value":"0"},{"code":"PF_Internet_Tecnologia","value":"0"},{"code":"PF_Cable_Tipo","value":"0"},{"code":"PF_Cable_CantidadDecosSmart","value":"0"},{"code":"PF_Cable_CantidadDecosHD","value":"0"},{"code":"PF_Internet_UltraWifiCantidad","value":"0"},{"code":"PF_Paquete_Renta","value":"0.0"},{"code":"PF_DescuentoPermanente","value":"0.0"},{"code":"PF_Arpa","value":"0.0"},{"code":"PF_InternetModem","value":"0"},{"code":"Flag_Desposicionado","value":"0"},{"code":"PM_Movil1_Renta","value":"0.0"},{"code":"PM_Movil1_DescPermanente","value":"0.0"},{"code":"PM_Movil1_CantDatos","value":"0"},{"code":"PM_Movil1_ConsumoMB","value":"0.0"},{"code":"PM_Movil1_BonoDuplicaFlag","value":"0"},{"code":"PM_Movil1_BonoDuplicaVenc","value":"0"},{"code":"PM_Movil1_DescuentoProm","value":"0"},{"code":"PM_Movil1_DescuentoPromVenc","value":"0"},{"code":"RentaActual","value":"0.0"}],"generalSaleCondition":[{"additionalInfo":[]}],"productOffers":[{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"200000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"200000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"232.0"},{"code":"RentaPaquete","value":"275.0"},{"code":"PrecioRegular","value":"385.0"},{"code":"Descuento","value":"110.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estándar Digital HD 200Mbps"},{"code":"PS","value":"23329"},{"code":"CostoHogarSolo","value":"232.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Smart Wifi"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"220.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"205.0"},{"code":"DescuentoEmpleado_Monto","value":"70.0"},{"code":"DescuentoEmpleado_RentaPaquete","value":"205.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"550.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"PF_CODIGO_AUTOMATIZADOR","value":"18737"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]},{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"100000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"100000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"192.0"},{"code":"RentaPaquete","value":"235.0"},{"code":"PrecioRegular","value":"329.0"},{"code":"Descuento","value":"94.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estandar Digital HD 100Mbps"},{"code":"PS","value":"23321"},{"code":"CostoHogarSolo","value":"192.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Docsis3"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"250.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"235.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"470.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]},{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"50000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"50000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"152.0"},{"code":"RentaPaquete","value":"195.0"},{"code":"PrecioRegular","value":"289.0"},{"code":"Descuento","value":"94.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estandar Digital HD 50Mbps"},{"code":"PS","value":"23323"},{"code":"CostoHogarSolo","value":"152.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Docsis3"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"210.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"195.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"390.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"PF_CODIGO_AUTOMATIZADOR","value":"18742"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]},{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"30000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"30000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"132.0"},{"code":"RentaPaquete","value":"175.0"},{"code":"PrecioRegular","value":"259.0"},{"code":"Descuento","value":"84.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estandar Digital HD 30Mbps"},{"code":"PS","value":"23322"},{"code":"CostoHogarSolo","value":"132.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Docsis3"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"190.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"175.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"350.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"PF_CODIGO_AUTOMATIZADOR","value":"18739"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]}]}}</t>
+  </si>
+  <si>
+    <t>{"HeaderOut":{"originator":"PE:TDP:WebConv:WebConv","destination":"PE:TDP:WebConv:WebConv","execId":"5cb89812-0eb3-0eb3-0eb3-0eb328561952","timestamp":"2020-06-19T03:34:04.221-05:00","msgType":"ERROR"},"ServerException":{"exceptionCategory":"SRV","exceptionCode":4002,"exceptionMsg":"Service Unavailable","exceptionDetail":"Hubo un problema en el lado del servidor. No puede procesar la solicitud debido a una sobrecarga temporal o mantenimiento del servidor.","exceptionSeverity":"E"}}</t>
+  </si>
+  <si>
+    <t>23322: false0</t>
+  </si>
+  <si>
+    <t>Movistar Total mari 13GB TV Estándar Digital HD 200Mbps: false1</t>
+  </si>
+  <si>
+    <t>175.0: false2</t>
+  </si>
+  <si>
+    <t>30000: false3</t>
+  </si>
+  <si>
+    <t>43.0: false4</t>
+  </si>
+  <si>
+    <t>13000: false5</t>
+  </si>
+  <si>
+    <t>132.0: false6</t>
+  </si>
+  <si>
+    <t>43.0: false7</t>
+  </si>
+  <si>
+    <t>De alta velocidad para compartir PasaGigas y usar en America y Europa.: false8</t>
+  </si>
+  <si>
+    <t>{"HeaderOut":{"originator":"PE:TDP:WebConv:WebConv","destination":"PE:TDP:WebConv:WebConv","execId":"5cb89812-0eb3-0eb3-0eb3-0eb328561952","timestamp":"2020-06-18T22:34:49.334-05:00","msgType":"RESPONSE"},"BodyOut":{"additionalInfo":[],"currentProductInfo":[{"code":"Fijo_ciclo","value":"1"},{"code":"PF_Internet_Velocidad","value":"0"},{"code":"PF_Internet_Tecnologia","value":"0"},{"code":"PF_Cable_Tipo","value":"0"},{"code":"PF_Cable_CantidadDecosSmart","value":"0"},{"code":"PF_Cable_CantidadDecosHD","value":"0"},{"code":"PF_Internet_UltraWifiCantidad","value":"0"},{"code":"PF_Paquete_Renta","value":"0.0"},{"code":"PF_DescuentoPermanente","value":"0.0"},{"code":"PF_Arpa","value":"0.0"},{"code":"PF_InternetModem","value":"0"},{"code":"Flag_Desposicionado","value":"0"},{"code":"PM_Movil1_Renta","value":"0.0"},{"code":"PM_Movil1_DescPermanente","value":"0.0"},{"code":"PM_Movil1_CantDatos","value":"0"},{"code":"PM_Movil1_ConsumoMB","value":"0.0"},{"code":"PM_Movil1_BonoDuplicaFlag","value":"0"},{"code":"PM_Movil1_BonoDuplicaVenc","value":"0"},{"code":"PM_Movil1_DescuentoProm","value":"0"},{"code":"PM_Movil1_DescuentoPromVenc","value":"0"},{"code":"RentaActual","value":"0.0"}],"generalSaleCondition":[{"additionalInfo":[]}],"productOffers":[{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"200000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"200000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"232.0"},{"code":"RentaPaquete","value":"275.0"},{"code":"PrecioRegular","value":"385.0"},{"code":"Descuento","value":"110.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estándar Digital HD 200Mbps"},{"code":"PS","value":"23329"},{"code":"CostoHogarSolo","value":"232.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Smart Wifi"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"220.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"205.0"},{"code":"DescuentoEmpleado_Monto","value":"70.0"},{"code":"DescuentoEmpleado_RentaPaquete","value":"205.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"550.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"PF_CODIGO_AUTOMATIZADOR","value":"18737"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]},{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"100000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"100000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"192.0"},{"code":"RentaPaquete","value":"235.0"},{"code":"PrecioRegular","value":"329.0"},{"code":"Descuento","value":"94.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estandar Digital HD 100Mbps"},{"code":"PS","value":"23321"},{"code":"CostoHogarSolo","value":"192.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Docsis3"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"250.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"235.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"470.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]},{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"50000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"50000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"152.0"},{"code":"RentaPaquete","value":"195.0"},{"code":"PrecioRegular","value":"289.0"},{"code":"Descuento","value":"94.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estandar Digital HD 50Mbps"},{"code":"PS","value":"23323"},{"code":"CostoHogarSolo","value":"152.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Docsis3"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"210.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"195.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"390.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"PF_CODIGO_AUTOMATIZADOR","value":"18742"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]},{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"30000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"30000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"132.0"},{"code":"RentaPaquete","value":"175.0"},{"code":"PrecioRegular","value":"259.0"},{"code":"Descuento","value":"84.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estandar Digital HD 30Mbps"},{"code":"PS","value":"23322"},{"code":"CostoHogarSolo","value":"132.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Docsis3"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"190.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"175.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"350.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"PF_CODIGO_AUTOMATIZADOR","value":"18739"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]}]}}</t>
+  </si>
+  <si>
+    <t>{"HeaderOut":{"originator":"PE:TDP:WebConv:WebConv","destination":"PE:TDP:WebConv:WebConv","execId":"5cb89812-0eb3-0eb3-0eb3-0eb328561952","timestamp":"2020-06-18T22:35:40.114-05:00","msgType":"RESPONSE"},"BodyOut":{"additionalInfo":[],"currentProductInfo":[{"code":"Fijo_ciclo","value":"1"},{"code":"PF_Internet_Velocidad","value":"0"},{"code":"PF_Internet_Tecnologia","value":"0"},{"code":"PF_Cable_Tipo","value":"0"},{"code":"PF_Cable_CantidadDecosSmart","value":"0"},{"code":"PF_Cable_CantidadDecosHD","value":"0"},{"code":"PF_Internet_UltraWifiCantidad","value":"0"},{"code":"PF_Paquete_Renta","value":"0.0"},{"code":"PF_DescuentoPermanente","value":"0.0"},{"code":"PF_Arpa","value":"0.0"},{"code":"PF_InternetModem","value":"0"},{"code":"Flag_Desposicionado","value":"0"},{"code":"PM_Movil1_Renta","value":"0.0"},{"code":"PM_Movil1_DescPermanente","value":"0.0"},{"code":"PM_Movil1_CantDatos","value":"0"},{"code":"PM_Movil1_ConsumoMB","value":"0.0"},{"code":"PM_Movil1_BonoDuplicaFlag","value":"0"},{"code":"PM_Movil1_BonoDuplicaVenc","value":"0"},{"code":"PM_Movil1_DescuentoProm","value":"0"},{"code":"PM_Movil1_DescuentoPromVenc","value":"0"},{"code":"RentaActual","value":"0.0"}],"generalSaleCondition":[{"additionalInfo":[]}],"productOffers":[{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"200000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"200000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"232.0"},{"code":"RentaPaquete","value":"275.0"},{"code":"PrecioRegular","value":"385.0"},{"code":"Descuento","value":"110.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estándar Digital HD 200Mbps"},{"code":"PS","value":"23329"},{"code":"CostoHogarSolo","value":"232.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Smart Wifi"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"220.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"205.0"},{"code":"DescuentoEmpleado_Monto","value":"70.0"},{"code":"DescuentoEmpleado_RentaPaquete","value":"205.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"550.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"PF_CODIGO_AUTOMATIZADOR","value":"18737"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]},{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"100000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"100000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"192.0"},{"code":"RentaPaquete","value":"235.0"},{"code":"PrecioRegular","value":"329.0"},{"code":"Descuento","value":"94.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estandar Digital HD 100Mbps"},{"code":"PS","value":"23321"},{"code":"CostoHogarSolo","value":"192.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Docsis3"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"250.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"235.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"470.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]},{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"50000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"50000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"152.0"},{"code":"RentaPaquete","value":"195.0"},{"code":"PrecioRegular","value":"289.0"},{"code":"Descuento","value":"94.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estandar Digital HD 50Mbps"},{"code":"PS","value":"23323"},{"code":"CostoHogarSolo","value":"152.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Docsis3"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"210.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"195.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"390.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"PF_CODIGO_AUTOMATIZADOR","value":"18742"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]},{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"30000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"30000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"132.0"},{"code":"RentaPaquete","value":"175.0"},{"code":"PrecioRegular","value":"259.0"},{"code":"Descuento","value":"84.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estandar Digital HD 30Mbps"},{"code":"PS","value":"23322"},{"code":"CostoHogarSolo","value":"132.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Docsis3"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"190.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"175.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"350.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"PF_CODIGO_AUTOMATIZADOR","value":"18739"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]}]}}</t>
+  </si>
+  <si>
+    <t>{"HeaderOut":{"originator":"PE:TDP:WebConv:WebConv","destination":"PE:TDP:WebConv:WebConv","execId":"5cb89812-0eb3-0eb3-0eb3-0eb328561952","timestamp":"2020-06-18T22:35:42.894-05:00","msgType":"RESPONSE"},"BodyOut":{"additionalInfo":[],"currentProductInfo":[{"code":"Fijo_ciclo","value":"1"},{"code":"PF_Internet_Velocidad","value":"0"},{"code":"PF_Internet_Tecnologia","value":"0"},{"code":"PF_Cable_Tipo","value":"0"},{"code":"PF_Cable_CantidadDecosSmart","value":"0"},{"code":"PF_Cable_CantidadDecosHD","value":"0"},{"code":"PF_Internet_UltraWifiCantidad","value":"0"},{"code":"PF_Paquete_Renta","value":"0.0"},{"code":"PF_DescuentoPermanente","value":"0.0"},{"code":"PF_Arpa","value":"0.0"},{"code":"PF_InternetModem","value":"0"},{"code":"Flag_Desposicionado","value":"0"},{"code":"PM_Movil1_Renta","value":"0.0"},{"code":"PM_Movil1_DescPermanente","value":"0.0"},{"code":"PM_Movil1_CantDatos","value":"0"},{"code":"PM_Movil1_ConsumoMB","value":"0.0"},{"code":"PM_Movil1_BonoDuplicaFlag","value":"0"},{"code":"PM_Movil1_BonoDuplicaVenc","value":"0"},{"code":"PM_Movil1_DescuentoProm","value":"0"},{"code":"PM_Movil1_DescuentoPromVenc","value":"0"},{"code":"RentaActual","value":"0.0"}],"generalSaleCondition":[{"additionalInfo":[]}],"productOffers":[{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"200000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"200000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"232.0"},{"code":"RentaPaquete","value":"275.0"},{"code":"PrecioRegular","value":"385.0"},{"code":"Descuento","value":"110.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estándar Digital HD 200Mbps"},{"code":"PS","value":"23329"},{"code":"CostoHogarSolo","value":"232.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Smart Wifi"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"220.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"205.0"},{"code":"DescuentoEmpleado_Monto","value":"70.0"},{"code":"DescuentoEmpleado_RentaPaquete","value":"205.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"550.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"PF_CODIGO_AUTOMATIZADOR","value":"18737"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]},{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"100000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"100000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"192.0"},{"code":"RentaPaquete","value":"235.0"},{"code":"PrecioRegular","value":"329.0"},{"code":"Descuento","value":"94.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estandar Digital HD 100Mbps"},{"code":"PS","value":"23321"},{"code":"CostoHogarSolo","value":"192.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Docsis3"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"250.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"235.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"470.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]},{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"50000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"50000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"152.0"},{"code":"RentaPaquete","value":"195.0"},{"code":"PrecioRegular","value":"289.0"},{"code":"Descuento","value":"94.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estandar Digital HD 50Mbps"},{"code":"PS","value":"23323"},{"code":"CostoHogarSolo","value":"152.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Docsis3"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"210.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"195.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"390.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"PF_CODIGO_AUTOMATIZADOR","value":"18742"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]},{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"30000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"30000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"132.0"},{"code":"RentaPaquete","value":"175.0"},{"code":"PrecioRegular","value":"259.0"},{"code":"Descuento","value":"84.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estandar Digital HD 30Mbps"},{"code":"PS","value":"23322"},{"code":"CostoHogarSolo","value":"132.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Docsis3"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"190.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"175.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"350.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"PF_CODIGO_AUTOMATIZADOR","value":"18739"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]}]}}</t>
+  </si>
+  <si>
+    <t>{"HeaderOut":{"originator":"PE:TDP:WebConv:WebConv","destination":"PE:TDP:WebConv:WebConv","execId":"5cb89812-0eb3-0eb3-0eb3-0eb328561952","timestamp":"2020-06-18T22:36:17.505-05:00","msgType":"RESPONSE"},"BodyOut":{"additionalInfo":[],"currentProductInfo":[{"code":"Fijo_ciclo","value":"1"},{"code":"PF_Internet_Velocidad","value":"0"},{"code":"PF_Internet_Tecnologia","value":"0"},{"code":"PF_Cable_Tipo","value":"0"},{"code":"PF_Cable_CantidadDecosSmart","value":"0"},{"code":"PF_Cable_CantidadDecosHD","value":"0"},{"code":"PF_Internet_UltraWifiCantidad","value":"0"},{"code":"PF_Paquete_Renta","value":"0.0"},{"code":"PF_DescuentoPermanente","value":"0.0"},{"code":"PF_Arpa","value":"0.0"},{"code":"PF_InternetModem","value":"0"},{"code":"Flag_Desposicionado","value":"0"},{"code":"PM_Movil1_Renta","value":"0.0"},{"code":"PM_Movil1_DescPermanente","value":"0.0"},{"code":"PM_Movil1_CantDatos","value":"0"},{"code":"PM_Movil1_ConsumoMB","value":"0.0"},{"code":"PM_Movil1_BonoDuplicaFlag","value":"0"},{"code":"PM_Movil1_BonoDuplicaVenc","value":"0"},{"code":"PM_Movil1_DescuentoProm","value":"0"},{"code":"PM_Movil1_DescuentoPromVenc","value":"0"},{"code":"RentaActual","value":"0.0"}],"generalSaleCondition":[{"additionalInfo":[]}],"productOffers":[{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"200000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"200000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"232.0"},{"code":"RentaPaquete","value":"275.0"},{"code":"PrecioRegular","value":"385.0"},{"code":"Descuento","value":"110.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estándar Digital HD 200Mbps"},{"code":"PS","value":"23329"},{"code":"CostoHogarSolo","value":"232.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Smart Wifi"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"220.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"205.0"},{"code":"DescuentoEmpleado_Monto","value":"70.0"},{"code":"DescuentoEmpleado_RentaPaquete","value":"205.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"550.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"PF_CODIGO_AUTOMATIZADOR","value":"18737"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]},{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"100000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"100000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"192.0"},{"code":"RentaPaquete","value":"235.0"},{"code":"PrecioRegular","value":"329.0"},{"code":"Descuento","value":"94.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estandar Digital HD 100Mbps"},{"code":"PS","value":"23321"},{"code":"CostoHogarSolo","value":"192.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Docsis3"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"250.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"235.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"470.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]},{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"50000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"50000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"152.0"},{"code":"RentaPaquete","value":"195.0"},{"code":"PrecioRegular","value":"289.0"},{"code":"Descuento","value":"94.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estandar Digital HD 50Mbps"},{"code":"PS","value":"23323"},{"code":"CostoHogarSolo","value":"152.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Docsis3"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"210.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"195.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"390.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"PF_CODIGO_AUTOMATIZADOR","value":"18742"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]},{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"30000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"30000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"132.0"},{"code":"RentaPaquete","value":"175.0"},{"code":"PrecioRegular","value":"259.0"},{"code":"Descuento","value":"84.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estandar Digital HD 30Mbps"},{"code":"PS","value":"23322"},{"code":"CostoHogarSolo","value":"132.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Docsis3"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"190.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"175.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"350.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"PF_CODIGO_AUTOMATIZADOR","value":"18739"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]}]}}</t>
+  </si>
+  <si>
+    <t>{"HeaderOut":{"originator":"PE:TDP:WebConv:WebConv","destination":"PE:TDP:WebConv:WebConv","execId":"5cb89812-0eb3-0eb3-0eb3-0eb328561952","timestamp":"2020-06-18T22:36:20.145-05:00","msgType":"RESPONSE"},"BodyOut":{"additionalInfo":[],"currentProductInfo":[{"code":"Fijo_ciclo","value":"1"},{"code":"PF_Internet_Velocidad","value":"0"},{"code":"PF_Internet_Tecnologia","value":"0"},{"code":"PF_Cable_Tipo","value":"0"},{"code":"PF_Cable_CantidadDecosSmart","value":"0"},{"code":"PF_Cable_CantidadDecosHD","value":"0"},{"code":"PF_Internet_UltraWifiCantidad","value":"0"},{"code":"PF_Paquete_Renta","value":"0.0"},{"code":"PF_DescuentoPermanente","value":"0.0"},{"code":"PF_Arpa","value":"0.0"},{"code":"PF_InternetModem","value":"0"},{"code":"Flag_Desposicionado","value":"0"},{"code":"PM_Movil1_Renta","value":"0.0"},{"code":"PM_Movil1_DescPermanente","value":"0.0"},{"code":"PM_Movil1_CantDatos","value":"0"},{"code":"PM_Movil1_ConsumoMB","value":"0.0"},{"code":"PM_Movil1_BonoDuplicaFlag","value":"0"},{"code":"PM_Movil1_BonoDuplicaVenc","value":"0"},{"code":"PM_Movil1_DescuentoProm","value":"0"},{"code":"PM_Movil1_DescuentoPromVenc","value":"0"},{"code":"RentaActual","value":"0.0"}],"generalSaleCondition":[{"additionalInfo":[]}],"productOffers":[{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"200000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"200000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"232.0"},{"code":"RentaPaquete","value":"275.0"},{"code":"PrecioRegular","value":"385.0"},{"code":"Descuento","value":"110.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estándar Digital HD 200Mbps"},{"code":"PS","value":"23329"},{"code":"CostoHogarSolo","value":"232.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Smart Wifi"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"220.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"205.0"},{"code":"DescuentoEmpleado_Monto","value":"70.0"},{"code":"DescuentoEmpleado_RentaPaquete","value":"205.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"550.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"PF_CODIGO_AUTOMATIZADOR","value":"18737"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]},{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"100000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"100000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"192.0"},{"code":"RentaPaquete","value":"235.0"},{"code":"PrecioRegular","value":"329.0"},{"code":"Descuento","value":"94.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estandar Digital HD 100Mbps"},{"code":"PS","value":"23321"},{"code":"CostoHogarSolo","value":"192.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Docsis3"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"250.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"235.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"470.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]},{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"50000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"50000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"152.0"},{"code":"RentaPaquete","value":"195.0"},{"code":"PrecioRegular","value":"289.0"},{"code":"Descuento","value":"94.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estandar Digital HD 50Mbps"},{"code":"PS","value":"23323"},{"code":"CostoHogarSolo","value":"152.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Docsis3"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"210.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"195.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"390.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"PF_CODIGO_AUTOMATIZADOR","value":"18742"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]},{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"30000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"30000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"132.0"},{"code":"RentaPaquete","value":"175.0"},{"code":"PrecioRegular","value":"259.0"},{"code":"Descuento","value":"84.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estandar Digital HD 30Mbps"},{"code":"PS","value":"23322"},{"code":"CostoHogarSolo","value":"132.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Docsis3"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"190.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"175.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"350.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"PF_CODIGO_AUTOMATIZADOR","value":"18739"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]}]}}</t>
+  </si>
+  <si>
+    <t>{"HeaderOut":{"originator":"PE:TDP:WebConv:WebConv","destination":"PE:TDP:WebConv:WebConv","execId":"5cb89812-0eb3-0eb3-0eb3-0eb328561952","timestamp":"2020-06-18T22:51:46.124-05:00","msgType":"RESPONSE"},"BodyOut":{"additionalInfo":[],"currentProductInfo":[{"code":"Fijo_ciclo","value":"1"},{"code":"PF_Internet_Velocidad","value":"0"},{"code":"PF_Internet_Tecnologia","value":"0"},{"code":"PF_Cable_Tipo","value":"0"},{"code":"PF_Cable_CantidadDecosSmart","value":"0"},{"code":"PF_Cable_CantidadDecosHD","value":"0"},{"code":"PF_Internet_UltraWifiCantidad","value":"0"},{"code":"PF_Paquete_Renta","value":"0.0"},{"code":"PF_DescuentoPermanente","value":"0.0"},{"code":"PF_Arpa","value":"0.0"},{"code":"PF_InternetModem","value":"0"},{"code":"Flag_Desposicionado","value":"0"},{"code":"PM_Movil1_Renta","value":"0.0"},{"code":"PM_Movil1_DescPermanente","value":"0.0"},{"code":"PM_Movil1_CantDatos","value":"0"},{"code":"PM_Movil1_ConsumoMB","value":"0.0"},{"code":"PM_Movil1_BonoDuplicaFlag","value":"0"},{"code":"PM_Movil1_BonoDuplicaVenc","value":"0"},{"code":"PM_Movil1_DescuentoProm","value":"0"},{"code":"PM_Movil1_DescuentoPromVenc","value":"0"},{"code":"RentaActual","value":"0.0"}],"generalSaleCondition":[{"additionalInfo":[]}],"productOffers":[{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"200000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"200000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"232.0"},{"code":"RentaPaquete","value":"275.0"},{"code":"PrecioRegular","value":"385.0"},{"code":"Descuento","value":"110.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estándar Digital HD 200Mbps"},{"code":"PS","value":"23329"},{"code":"CostoHogarSolo","value":"232.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Smart Wifi"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"220.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"205.0"},{"code":"DescuentoEmpleado_Monto","value":"70.0"},{"code":"DescuentoEmpleado_RentaPaquete","value":"205.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"550.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"PF_CODIGO_AUTOMATIZADOR","value":"18737"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]},{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"100000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"100000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"192.0"},{"code":"RentaPaquete","value":"235.0"},{"code":"PrecioRegular","value":"329.0"},{"code":"Descuento","value":"94.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estandar Digital HD 100Mbps"},{"code":"PS","value":"23321"},{"code":"CostoHogarSolo","value":"192.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Docsis3"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"250.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"235.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"470.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]},{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"50000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"50000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"152.0"},{"code":"RentaPaquete","value":"195.0"},{"code":"PrecioRegular","value":"289.0"},{"code":"Descuento","value":"94.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estandar Digital HD 50Mbps"},{"code":"PS","value":"23323"},{"code":"CostoHogarSolo","value":"152.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Docsis3"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"210.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"195.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"390.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"PF_CODIGO_AUTOMATIZADOR","value":"18742"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]},{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"30000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"30000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"132.0"},{"code":"RentaPaquete","value":"175.0"},{"code":"PrecioRegular","value":"259.0"},{"code":"Descuento","value":"84.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estandar Digital HD 30Mbps"},{"code":"PS","value":"23322"},{"code":"CostoHogarSolo","value":"132.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Docsis3"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"190.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"175.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"350.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"PF_CODIGO_AUTOMATIZADOR","value":"18739"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]}]}}</t>
+  </si>
+  <si>
+    <t>{"HeaderOut":{"originator":"PE:TDP:WebConv:WebConv","destination":"PE:TDP:WebConv:WebConv","execId":"5cb89812-0eb3-0eb3-0eb3-0eb328561952","timestamp":"2020-06-18T22:51:49.063-05:00","msgType":"RESPONSE"},"BodyOut":{"additionalInfo":[],"currentProductInfo":[{"code":"Fijo_ciclo","value":"1"},{"code":"PF_Internet_Velocidad","value":"0"},{"code":"PF_Internet_Tecnologia","value":"0"},{"code":"PF_Cable_Tipo","value":"0"},{"code":"PF_Cable_CantidadDecosSmart","value":"0"},{"code":"PF_Cable_CantidadDecosHD","value":"0"},{"code":"PF_Internet_UltraWifiCantidad","value":"0"},{"code":"PF_Paquete_Renta","value":"0.0"},{"code":"PF_DescuentoPermanente","value":"0.0"},{"code":"PF_Arpa","value":"0.0"},{"code":"PF_InternetModem","value":"0"},{"code":"Flag_Desposicionado","value":"0"},{"code":"PM_Movil1_Renta","value":"0.0"},{"code":"PM_Movil1_DescPermanente","value":"0.0"},{"code":"PM_Movil1_CantDatos","value":"0"},{"code":"PM_Movil1_ConsumoMB","value":"0.0"},{"code":"PM_Movil1_BonoDuplicaFlag","value":"0"},{"code":"PM_Movil1_BonoDuplicaVenc","value":"0"},{"code":"PM_Movil1_DescuentoProm","value":"0"},{"code":"PM_Movil1_DescuentoPromVenc","value":"0"},{"code":"RentaActual","value":"0.0"}],"generalSaleCondition":[{"additionalInfo":[]}],"productOffers":[{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"200000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"200000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"232.0"},{"code":"RentaPaquete","value":"275.0"},{"code":"PrecioRegular","value":"385.0"},{"code":"Descuento","value":"110.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estándar Digital HD 200Mbps"},{"code":"PS","value":"23329"},{"code":"CostoHogarSolo","value":"232.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Smart Wifi"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"220.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"205.0"},{"code":"DescuentoEmpleado_Monto","value":"70.0"},{"code":"DescuentoEmpleado_RentaPaquete","value":"205.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"550.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"PF_CODIGO_AUTOMATIZADOR","value":"18737"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]},{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"100000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"100000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"192.0"},{"code":"RentaPaquete","value":"235.0"},{"code":"PrecioRegular","value":"329.0"},{"code":"Descuento","value":"94.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estandar Digital HD 100Mbps"},{"code":"PS","value":"23321"},{"code":"CostoHogarSolo","value":"192.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Docsis3"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"250.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"235.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"470.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]},{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"50000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"50000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"152.0"},{"code":"RentaPaquete","value":"195.0"},{"code":"PrecioRegular","value":"289.0"},{"code":"Descuento","value":"94.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estandar Digital HD 50Mbps"},{"code":"PS","value":"23323"},{"code":"CostoHogarSolo","value":"152.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Docsis3"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"210.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"195.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"390.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"PF_CODIGO_AUTOMATIZADOR","value":"18742"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]},{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"30000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"30000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"132.0"},{"code":"RentaPaquete","value":"175.0"},{"code":"PrecioRegular","value":"259.0"},{"code":"Descuento","value":"84.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estandar Digital HD 30Mbps"},{"code":"PS","value":"23322"},{"code":"CostoHogarSolo","value":"132.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Docsis3"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"190.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"175.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"350.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"PF_CODIGO_AUTOMATIZADOR","value":"18739"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]}]}}</t>
+  </si>
+  <si>
+    <t>{"HeaderOut":{"originator":"PE:TDP:WebConv:WebConv","destination":"PE:TDP:WebConv:WebConv","execId":"5cb89812-0eb3-0eb3-0eb3-0eb328561952","timestamp":"2020-06-18T23:02:39.756-05:00","msgType":"RESPONSE"},"BodyOut":{"additionalInfo":[],"currentProductInfo":[{"code":"Fijo_ciclo","value":"1"},{"code":"PF_Internet_Velocidad","value":"0"},{"code":"PF_Internet_Tecnologia","value":"0"},{"code":"PF_Cable_Tipo","value":"0"},{"code":"PF_Cable_CantidadDecosSmart","value":"0"},{"code":"PF_Cable_CantidadDecosHD","value":"0"},{"code":"PF_Internet_UltraWifiCantidad","value":"0"},{"code":"PF_Paquete_Renta","value":"0.0"},{"code":"PF_DescuentoPermanente","value":"0.0"},{"code":"PF_Arpa","value":"0.0"},{"code":"PF_InternetModem","value":"0"},{"code":"Flag_Desposicionado","value":"0"},{"code":"PM_Movil1_Renta","value":"0.0"},{"code":"PM_Movil1_DescPermanente","value":"0.0"},{"code":"PM_Movil1_CantDatos","value":"0"},{"code":"PM_Movil1_ConsumoMB","value":"0.0"},{"code":"PM_Movil1_BonoDuplicaFlag","value":"0"},{"code":"PM_Movil1_BonoDuplicaVenc","value":"0"},{"code":"PM_Movil1_DescuentoProm","value":"0"},{"code":"PM_Movil1_DescuentoPromVenc","value":"0"},{"code":"RentaActual","value":"0.0"}],"generalSaleCondition":[{"additionalInfo":[]}],"productOffers":[{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"200000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"200000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"232.0"},{"code":"RentaPaquete","value":"275.0"},{"code":"PrecioRegular","value":"385.0"},{"code":"Descuento","value":"110.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estándar Digital HD 200Mbps"},{"code":"PS","value":"23329"},{"code":"CostoHogarSolo","value":"232.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Smart Wifi"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"220.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"205.0"},{"code":"DescuentoEmpleado_Monto","value":"70.0"},{"code":"DescuentoEmpleado_RentaPaquete","value":"205.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"550.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"PF_CODIGO_AUTOMATIZADOR","value":"18737"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]},{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"100000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"100000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"192.0"},{"code":"RentaPaquete","value":"235.0"},{"code":"PrecioRegular","value":"329.0"},{"code":"Descuento","value":"94.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estandar Digital HD 100Mbps"},{"code":"PS","value":"23321"},{"code":"CostoHogarSolo","value":"192.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Docsis3"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"250.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"235.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"470.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]},{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"50000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"50000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"152.0"},{"code":"RentaPaquete","value":"195.0"},{"code":"PrecioRegular","value":"289.0"},{"code":"Descuento","value":"94.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estandar Digital HD 50Mbps"},{"code":"PS","value":"23323"},{"code":"CostoHogarSolo","value":"152.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Docsis3"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"210.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"195.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"390.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"PF_CODIGO_AUTOMATIZADOR","value":"18742"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]},{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"30000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"30000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"132.0"},{"code":"RentaPaquete","value":"175.0"},{"code":"PrecioRegular","value":"259.0"},{"code":"Descuento","value":"84.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estandar Digital HD 30Mbps"},{"code":"PS","value":"23322"},{"code":"CostoHogarSolo","value":"132.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Docsis3"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"190.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"175.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"350.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"PF_CODIGO_AUTOMATIZADOR","value":"18739"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]}]}}</t>
+  </si>
+  <si>
+    <t>{"HeaderOut":{"originator":"PE:TDP:WebConv:WebConv","destination":"PE:TDP:WebConv:WebConv","execId":"5cb89812-0eb3-0eb3-0eb3-0eb328561952","timestamp":"2020-06-18T23:02:42.687-05:00","msgType":"RESPONSE"},"BodyOut":{"additionalInfo":[],"currentProductInfo":[{"code":"Fijo_ciclo","value":"1"},{"code":"PF_Internet_Velocidad","value":"0"},{"code":"PF_Internet_Tecnologia","value":"0"},{"code":"PF_Cable_Tipo","value":"0"},{"code":"PF_Cable_CantidadDecosSmart","value":"0"},{"code":"PF_Cable_CantidadDecosHD","value":"0"},{"code":"PF_Internet_UltraWifiCantidad","value":"0"},{"code":"PF_Paquete_Renta","value":"0.0"},{"code":"PF_DescuentoPermanente","value":"0.0"},{"code":"PF_Arpa","value":"0.0"},{"code":"PF_InternetModem","value":"0"},{"code":"Flag_Desposicionado","value":"0"},{"code":"PM_Movil1_Renta","value":"0.0"},{"code":"PM_Movil1_DescPermanente","value":"0.0"},{"code":"PM_Movil1_CantDatos","value":"0"},{"code":"PM_Movil1_ConsumoMB","value":"0.0"},{"code":"PM_Movil1_BonoDuplicaFlag","value":"0"},{"code":"PM_Movil1_BonoDuplicaVenc","value":"0"},{"code":"PM_Movil1_DescuentoProm","value":"0"},{"code":"PM_Movil1_DescuentoPromVenc","value":"0"},{"code":"RentaActual","value":"0.0"}],"generalSaleCondition":[{"additionalInfo":[]}],"productOffers":[{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"200000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"200000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"232.0"},{"code":"RentaPaquete","value":"275.0"},{"code":"PrecioRegular","value":"385.0"},{"code":"Descuento","value":"110.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estándar Digital HD 200Mbps"},{"code":"PS","value":"23329"},{"code":"CostoHogarSolo","value":"232.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Smart Wifi"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"220.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"205.0"},{"code":"DescuentoEmpleado_Monto","value":"70.0"},{"code":"DescuentoEmpleado_RentaPaquete","value":"205.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"550.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"PF_CODIGO_AUTOMATIZADOR","value":"18737"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]},{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"100000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"100000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"192.0"},{"code":"RentaPaquete","value":"235.0"},{"code":"PrecioRegular","value":"329.0"},{"code":"Descuento","value":"94.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estandar Digital HD 100Mbps"},{"code":"PS","value":"23321"},{"code":"CostoHogarSolo","value":"192.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Docsis3"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"250.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"235.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"470.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]},{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"50000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"50000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"152.0"},{"code":"RentaPaquete","value":"195.0"},{"code":"PrecioRegular","value":"289.0"},{"code":"Descuento","value":"94.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estandar Digital HD 50Mbps"},{"code":"PS","value":"23323"},{"code":"CostoHogarSolo","value":"152.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Docsis3"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"210.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"195.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"390.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"PF_CODIGO_AUTOMATIZADOR","value":"18742"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]},{"poCode":"FAMILIACONTROLELIGE","boCode":"PLANRE144","saleConditions":[{"operationCommId":748,"condition":{"code":"financiamiento","value":"0"},"additionalInfo":[]}],"poId":"4269648","poNameEs":"Familia Control Elige +","boId":"34715111","boNameEs":"Plan Movistar Total ilim 13GB","price":300,"devices":[],"billingOffersInfo":[{"code":"Fijo_Linea","value":"Movistar Voz"},{"code":"Fijo_Internet","value":"30000"},{"code":"Fijo_Television","value":"Estandar"},{"code":"Movil1_Minutos","value":"999999"},{"code":"Movil1_Datos","value":"13000"},{"code":"planOfferArq","value":""},{"code":"PFInternetGapVelocity","value":"30000"},{"code":"Movil1_Apps","value":"7"},{"code":"DatosMovil1GBGap","value":"13000"},{"code":"Movil1_SMS","value":"Ilimitado"},{"code":"Movil1_Roaming","value":"13.0"},{"code":"Movil1_WAInt","value":"Ilimitado"},{"code":"Movil1_RentaPaquete","value":"43.0"},{"code":"Movil1_RoamingCobertura","value":"De alta velocidad para compartir PasaGigas y usar en America y Europa."},{"code":"Movil1_PasaGigas","value":"1"},{"code":"Fijo_RentaPaquete","value":"132.0"},{"code":"RentaPaquete","value":"175.0"},{"code":"PrecioRegular","value":"259.0"},{"code":"Descuento","value":"84.0"},{"code":"Nombre","value":"Movistar Total 13GB TV Estandar Digital HD 30Mbps"},{"code":"PS","value":"23322"},{"code":"CostoHogarSolo","value":"132.0"},{"code":"CostoMovil1_Solo","value":"43.0"},{"code":"MPrix","value":"Lite"},{"code":"MPlay","value":"Full"},{"code":"Linea_Minutos","value":"Llamadas ilimitadas a fijos Movistar + 100 min. a otros operadores fijos"},{"code":"Cable_Canales","value":"110 canales SD + 63 canales HD"},{"code":"Fijo_Equipamiento_Modem","value":"Modem Docsis3"},{"code":"InstalacionCosto","value":"15.0"},{"code":"InstalacionCuotas","value":"6"},{"code":"RentaTotal","value":"190.0"},{"code":"Fijo_Equipamiento_Deco","value":"2 Decos HD"},{"code":"RentaPorAdicionales","value":"0.0"},{"code":"Salto","value":"175.0"},{"code":"Penalidad Plan Rank_Movil1","value":"false"},{"code":"AD_DecoSmart","value":"0.0"},{"code":"AD_PuntoAdicionalHD","value":"0.0"},{"code":"AD_UltraWifi","value":"0.0"},{"code":"AD_SeguridadTotal","value":"0.0"},{"code":"AD_RentaAdicionalMultidestino","value":"0.0"},{"code":"AD_RentaAdicionalMantenimiento","value":"0.0"},{"code":"AD_RentaOtrosAdicionales","value":"0.0"},{"code":"AD_RentaAdicionalesMantener","value":"0.0"},{"code":"CostoTotalProductosSeparados","value":"350.0"},{"code":"Internet_TecnologiaDestino","value":"HFC"},{"code":"eqDecoQuantity","value":"0"},{"code":"eqUltraWifiQuantity","value":"0"},{"code":"Parrilla","value":"P3"},{"code":"PF_CODIGO_AUTOMATIZADOR","value":"18739"},{"code":"DescuentoTemporal_Campania","value":"MOVISTAR TOTAL"}],"currentOffersToKeep":[{"saleConditions":[{"additionalInfo":[]}],"devices":[],"billingOffersInfo":[]}]}]}}</t>
   </si>
 </sst>
 </file>
@@ -98,7 +179,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="179" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,7 +197,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -124,65 +205,2549 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="369">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -194,11 +2759,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="183">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -206,21 +2770,194 @@
     <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="8" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="12" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="14" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="16" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="18" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="20" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="22" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="24" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="27" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="29" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="31" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="37" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="39" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="43" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="45" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="47" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="50" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="52" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="54" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="56" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="58" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="60" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="62" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="64" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="66" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="68" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="70" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="73" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="75" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="77" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="79" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="81" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="83" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="85" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="87" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="89" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="91" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="93" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="96" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="98" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="100" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="102" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="104" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="106" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="108" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="110" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="112" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="114" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="116" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="119" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="121" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="123" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="125" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="127" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="129" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="131" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="133" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="135" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="137" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="139" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="141" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="143" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="145" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="147" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="149" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="151" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="153" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="155" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="157" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="159" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="161" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="164" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="166" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="168" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="170" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="172" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="174" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="176" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="178" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="180" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="182" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="184" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="187" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="189" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="191" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="193" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="195" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="197" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="199" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="201" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="203" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="205" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="207" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="210" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="212" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="214" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="216" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="218" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="220" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="222" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="224" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="226" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="228" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="230" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="233" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="235" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="237" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="239" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="241" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="243" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="245" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="247" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="249" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="251" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="253" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="256" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="258" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="260" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="262" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="264" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="266" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="268" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="270" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="272" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="274" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="276" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="279" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="281" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="283" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="285" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="287" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="289" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="291" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="293" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="295" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="297" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="299" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="302" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="304" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="306" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="308" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="310" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="312" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="314" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="316" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="318" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="320" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="322" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="325" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="327" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="329" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="331" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="333" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="335" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="337" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="339" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="341" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="343" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="345" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="348" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="350" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="352" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="354" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="356" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="358" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="360" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="362" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="364" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="366" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="368" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle builtinId="8" name="Hipervínculo" xfId="1"/>
+  <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -499,66 +3236,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X71"/>
+  <dimension ref="A1:Y71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="C2" sqref="C2:N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="109.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="24.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="52.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="10" max="11" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="69.42578125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="34.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="49.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="21.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row customFormat="1" r="1" s="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
@@ -570,66 +3308,70 @@
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
     </row>
-    <row customFormat="1" r="2" s="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
-        <v>1</v>
+    <row customFormat="1" customHeight="1" ht="12.75" r="2" s="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>14</v>
+      <c r="C2" s="172" t="s">
+        <v>50</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="174" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="175" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="176" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="177" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="178" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="179" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="180" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="181" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" t="s" s="182">
+        <v>24</v>
+      </c>
+      <c r="M2" s="173" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2"/>
-      <c r="O2"/>
-      <c r="R2"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="6"/>
+      <c r="S2"/>
     </row>
-    <row customFormat="1" r="3" s="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="3" s="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B3"/>
+      <c r="C3"/>
     </row>
-    <row customFormat="1" r="4" s="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="4" s="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B4"/>
     </row>
-    <row customFormat="1" r="5" s="1" spans="1:23" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="6" s="1" spans="1:23" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="7" s="1" spans="1:23" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="8" s="1" spans="1:23" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="9" s="1" spans="1:23" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="10" s="1" spans="1:23" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="11" s="1" spans="1:23" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="12" s="1" spans="1:23" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="13" s="1" spans="1:23" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="14" s="1" spans="1:23" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="15" s="1" spans="1:23" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="16" s="1" spans="1:23" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="5" s="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="D5" s="3"/>
+    </row>
+    <row customFormat="1" r="6" s="1" spans="1:24" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="7" s="1" spans="1:24" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="8" s="1" spans="1:24" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="9" s="1" spans="1:24" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="10" s="1" spans="1:24" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="11" s="1" spans="1:24" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="12" s="1" spans="1:24" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="13" s="1" spans="1:24" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="14" s="1" spans="1:24" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="15" s="1" spans="1:24" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="16" s="1" spans="1:24" x14ac:dyDescent="0.25"/>
     <row customFormat="1" r="17" s="1" x14ac:dyDescent="0.25"/>
     <row customFormat="1" r="18" s="1" x14ac:dyDescent="0.25"/>
     <row customFormat="1" r="19" s="1" x14ac:dyDescent="0.25"/>
@@ -686,10 +3428,7 @@
     <row customFormat="1" r="70" s="1" x14ac:dyDescent="0.25"/>
     <row customFormat="1" r="71" s="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <hyperlinks>
-    <hyperlink r:id="rId1" ref="B2"/>
-  </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId2" verticalDpi="300"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>